--- a/txt/週番号.xlsx
+++ b/txt/週番号.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b659120e8dbaac16/Git/UltraDate/txt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrdaya\OneDrive\Git\UltraDate\txt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -176,37 +176,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -289,361 +259,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8652,13 +8272,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="U2:AM52">
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>52</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16398,19 +16018,19 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="U2:AM52">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>54</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17651,7 +17271,7 @@
         <v>2032/1/1</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C65" si="8">WEEKNUM(B34)</f>
+        <f t="shared" ref="C34:C52" si="8">WEEKNUM(B34)</f>
         <v>1</v>
       </c>
       <c r="D34">
@@ -18348,7 +17968,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G2:G52">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>54</formula>
     </cfRule>
   </conditionalFormatting>
